--- a/test/test_singlezone/steady_04/正解値04.xlsx
+++ b/test/test_singlezone/steady_04/正解値04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/test_singlezone/steady_04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EFBABC-EDF6-4A25-AEDE-907455323973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{90EFBABC-EDF6-4A25-AEDE-907455323973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3462BFED-92A5-4196-BA63-75DA9156FB10}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
@@ -1304,27 +1304,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1335,11 +1320,8 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1365,6 +1347,12 @@
     <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,12 +1367,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1513,7 +1495,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="熱伝達率"/>
@@ -1526,48 +1508,30 @@
           <cell r="H20" t="str">
             <v>壁</v>
           </cell>
-          <cell r="K20">
-            <v>0.9</v>
-          </cell>
         </row>
         <row r="21">
           <cell r="H21" t="str">
             <v>壁</v>
-          </cell>
-          <cell r="K21">
-            <v>0.9</v>
           </cell>
         </row>
         <row r="22">
           <cell r="H22" t="str">
             <v>壁</v>
           </cell>
-          <cell r="K22">
-            <v>0.9</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="H23" t="str">
             <v>壁</v>
-          </cell>
-          <cell r="K23">
-            <v>0.9</v>
           </cell>
         </row>
         <row r="24">
           <cell r="H24" t="str">
             <v>床</v>
           </cell>
-          <cell r="K24">
-            <v>0.9</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="H25" t="str">
             <v>屋根</v>
-          </cell>
-          <cell r="K25">
-            <v>0.9</v>
           </cell>
         </row>
       </sheetData>
@@ -1577,9 +1541,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1617,7 +1581,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1723,7 +1687,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1865,7 +1829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1875,230 +1839,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81922F0-46CF-436B-B9D1-3C42B8880FD8}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="13"/>
-    <col min="6" max="6" width="12.875" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="13"/>
+    <col min="1" max="1" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="7"/>
+    <col min="6" max="6" width="12.875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="9">
         <v>1.199999999980782</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="str">
+      <c r="A3" s="6" t="str">
         <f>[1]正解値!$H20</f>
         <v>壁</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="10">
         <f>正解値!$J22</f>
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="11">
         <f t="shared" ref="C3:C8" si="0">B3/$B$9</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">0.5*(1-SIGN(1-4*C3/$H$2)*SQRT(ABS(1-4*C3/$H$2)))</f>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E3" s="12">
-        <f>[1]正解値!$K20</f>
+      <c r="E3" s="6">
+        <f>正解値!K22</f>
         <v>0.9</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F8" si="2">E3/(1-E3*D3)*4*0.0000000567*($H$3+273.15)^3</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="str">
+      <c r="A4" s="6" t="str">
         <f>[1]正解値!$H21</f>
         <v>壁</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="10">
         <f>正解値!$J23</f>
         <v>1</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E4" s="12">
-        <f>[1]正解値!$K21</f>
+      <c r="E4" s="6">
+        <f>正解値!K23</f>
         <v>0.9</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="str">
+      <c r="A5" s="6" t="str">
         <f>[1]正解値!$H22</f>
         <v>壁</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="10">
         <f>正解値!$J24</f>
         <v>1</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E5" s="12">
-        <f>[1]正解値!$K22</f>
+      <c r="E5" s="6">
+        <f>正解値!K24</f>
         <v>0.9</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="str">
+      <c r="A6" s="6" t="str">
         <f>[1]正解値!$H23</f>
         <v>壁</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="10">
         <f>正解値!$J25</f>
         <v>1</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E6" s="12">
-        <f>[1]正解値!$K23</f>
+      <c r="E6" s="6">
+        <f>正解値!K25</f>
         <v>0.9</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="str">
+      <c r="A7" s="6" t="str">
         <f>[1]正解値!$H24</f>
         <v>床</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="10">
         <f>正解値!$J26</f>
         <v>1</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E7" s="12">
-        <f>[1]正解値!$K24</f>
+      <c r="E7" s="6">
+        <f>正解値!K26</f>
         <v>0.9</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="str">
+      <c r="A8" s="6" t="str">
         <f>[1]正解値!$H25</f>
         <v>屋根</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="10">
         <f>正解値!$J27</f>
         <v>1</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E8" s="12">
-        <f>[1]正解値!$K25</f>
+      <c r="E8" s="6">
+        <f>正解値!K27</f>
         <v>0.9</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="10">
         <f>SUM(B3:B8)</f>
         <v>6</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="19">
+      <c r="C9" s="6"/>
+      <c r="D9" s="13">
         <f>SUM(D3:D8)</f>
         <v>1.0000000000200189</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2112,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O6" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2218,11 +2184,11 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2233,140 +2199,140 @@
         <v>15</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="W20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="X20" s="25" t="s">
+      <c r="X20" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Y20" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="2">
         <v>1005</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="2"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="S21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="U21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="V21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="W21" s="1"/>
-      <c r="X21" s="25" t="s">
+      <c r="X21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Y21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="2">
         <v>1.2</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="H22" s="3" t="s">
+      <c r="F22" s="2"/>
+      <c r="H22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I22" s="1">
@@ -2402,54 +2368,54 @@
         <f t="shared" ref="Q22:Q27" ca="1" si="1">1/(1/$N22+$L22+$P22)</f>
         <v>2.3048160516241385</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="5">
         <f t="shared" ref="R22:R27" ca="1" si="2">$I22+($S22-$I22)*SUM($P22,$L22)/SUM($P22,$L22,$O22)</f>
-        <v>1.7347134670266748</v>
+        <v>1.7347134670266733</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" ref="S22:S27" ca="1" si="3">($D$31*$N22+$D$32*$M22)/SUM($N22,$M22)</f>
-        <v>3.5511022888528712</v>
+        <v>3.5511022888528743</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" ref="T22:T27" ca="1" si="4">($D$31-$R22)*$N22</f>
-        <v>16.350705766577921</v>
+        <v>16.350705766577946</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" ref="U22:U27" ca="1" si="5">($D$32-$R22)*$M22</f>
-        <v>0.16191987658791743</v>
-      </c>
-      <c r="V22" s="8">
+        <v>0.16191987658793758</v>
+      </c>
+      <c r="V22" s="3">
         <f t="shared" ref="V22:V27" ca="1" si="6">SUM($T22,$U22)</f>
-        <v>16.512625643165837</v>
+        <v>16.512625643165883</v>
       </c>
       <c r="W22" s="1">
         <f>(1-$W$26)*J22/SUM($J$22:$J$25,$J$27)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="X22" s="26">
+      <c r="X22" s="15">
         <f ca="1">SUMPRODUCT(R22:R27,W22:W27)</f>
-        <v>1.7796783136507295</v>
+        <v>1.7796783136507306</v>
       </c>
       <c r="Y22" s="1">
         <f ca="1">(N22*$D$31+M22*$D$32)*O22</f>
-        <v>3.5511022888528712</v>
+        <v>3.5511022888528743</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="2">
         <f>$D$21*$D$22</f>
         <v>1206</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="H23" s="4" t="s">
+      <c r="F23" s="2"/>
+      <c r="H23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="1">
@@ -2485,25 +2451,25 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.3048160516241385</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7347134670266748</v>
+        <v>1.7347134670266733</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5511022888528712</v>
+        <v>3.5511022888528743</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16.350705766577921</v>
+        <v>16.350705766577946</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16191987658791743</v>
-      </c>
-      <c r="V23" s="8">
+        <v>0.16191987658793758</v>
+      </c>
+      <c r="V23" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>16.512625643165837</v>
+        <v>16.512625643165883</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" ref="W23:W27" si="9">(1-$W$26)*J23/SUM($J$22:$J$25,$J$27)</f>
@@ -2511,11 +2477,11 @@
       </c>
       <c r="Y23" s="1">
         <f t="shared" ref="Y23:Y27" ca="1" si="10">(N23*$D$31+M23*$D$32)*O23</f>
-        <v>3.5511022888528712</v>
+        <v>3.5511022888528743</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2531,7 +2497,7 @@
         <v>9</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I24" s="1">
@@ -2567,25 +2533,25 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.3048160516241385</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7347134670266748</v>
+        <v>1.7347134670266733</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5511022888528712</v>
+        <v>3.5511022888528743</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16.350705766577921</v>
+        <v>16.350705766577946</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16191987658791743</v>
-      </c>
-      <c r="V24" s="8">
+        <v>0.16191987658793758</v>
+      </c>
+      <c r="V24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>16.512625643165837</v>
+        <v>16.512625643165883</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" si="9"/>
@@ -2593,12 +2559,12 @@
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.5511022888528712</v>
+        <v>3.5511022888528743</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A25" s="23"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2607,13 +2573,13 @@
       <c r="D25" s="1">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I25" s="1">
@@ -2649,25 +2615,25 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.3048160516241385</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7347134670266748</v>
+        <v>1.7347134670266733</v>
       </c>
       <c r="S25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5511022888528712</v>
+        <v>3.5511022888528743</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16.350705766577921</v>
+        <v>16.350705766577946</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16191987658791743</v>
-      </c>
-      <c r="V25" s="8">
+        <v>0.16191987658793758</v>
+      </c>
+      <c r="V25" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>16.512625643165837</v>
+        <v>16.512625643165883</v>
       </c>
       <c r="W25" s="1">
         <f t="shared" si="9"/>
@@ -2675,12 +2641,12 @@
       </c>
       <c r="Y25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.5511022888528712</v>
+        <v>3.5511022888528743</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2692,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I26" s="1">
@@ -2728,37 +2694,37 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.2531639669610057</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8150078359982034</v>
+        <v>1.8150078359982016</v>
       </c>
       <c r="S26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5511022888528712</v>
+        <v>3.5511022888528743</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16.106516587942828</v>
+        <v>16.106516587942849</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.32383975317586844</v>
-      </c>
-      <c r="V26" s="8">
+        <v>-0.3238397531758469</v>
+      </c>
+      <c r="V26" s="3">
         <f ca="1">SUM($T26,$U26)</f>
-        <v>15.78267683476696</v>
+        <v>15.782676834767003</v>
       </c>
       <c r="W26" s="1">
         <v>0.45</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.5511022888528712</v>
+        <v>3.5511022888528743</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2769,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I27" s="1">
@@ -2805,25 +2771,25 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.2531639669610057</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8150078359982034</v>
+        <v>1.8150078359982016</v>
       </c>
       <c r="S27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5511022888528712</v>
+        <v>3.5511022888528743</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16.106516587942828</v>
+        <v>16.106516587942849</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.32383975317586844</v>
-      </c>
-      <c r="V27" s="8">
+        <v>-0.3238397531758469</v>
+      </c>
+      <c r="V27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>15.78267683476696</v>
+        <v>15.782676834767003</v>
       </c>
       <c r="W27" s="1">
         <f t="shared" si="9"/>
@@ -2831,14 +2797,14 @@
       </c>
       <c r="Y27" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.5511022888528712</v>
+        <v>3.5511022888528743</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2846,54 +2812,54 @@
       </c>
       <c r="D28" s="1">
         <f ca="1">SUM($T$22:$T$27)</f>
-        <v>97.615856242197339</v>
-      </c>
-      <c r="E28" s="6" t="s">
+        <v>97.615856242197481</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D29" s="1">
         <f ca="1">$D$23*$D$25*($D$31-$D$24)</f>
-        <v>2.3841437578025877</v>
-      </c>
-      <c r="E29" s="6" t="s">
+        <v>2.3841437578025895</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="1">
         <f ca="1">SUM($D$28:$D$29)</f>
-        <v>99.999999999999929</v>
-      </c>
-      <c r="E30" s="3" t="s">
+        <v>100.00000000000007</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A31" s="23"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="4">
         <f ca="1">$D$31+($D$27-$D$30)/$D$26</f>
-        <v>7.1111581117273035</v>
+        <v>7.1111581117272982</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
@@ -2901,14 +2867,14 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="1">
         <f ca="1">SUMPRODUCT($M$22:$M$27,$J$22:$J$27,$R$22:$R$27)/SUMPRODUCT($M$22:$M$27,$J$22:$J$27)</f>
-        <v>1.7614782566838509</v>
+        <v>1.7614782566838492</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>

--- a/test/test_singlezone/steady_04/正解値04.xlsx
+++ b/test/test_singlezone/steady_04/正解値04.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/test_singlezone/steady_04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{90EFBABC-EDF6-4A25-AEDE-907455323973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3462BFED-92A5-4196-BA63-75DA9156FB10}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{90EFBABC-EDF6-4A25-AEDE-907455323973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACDF44EA-DD80-44EA-AAB4-1722C587D79A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
     <sheet name="正解値" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029" iterate="1" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -316,13 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作用温度</t>
-    <rPh sb="0" eb="4">
-      <t>サヨウオンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>相当外気温度</t>
     <rPh sb="0" eb="2">
       <t>ソウトウ</t>
@@ -1165,6 +1155,15 @@
       <t>シツオン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>屋根</t>
   </si>
 </sst>
 </file>
@@ -1494,52 +1493,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="熱伝達率"/>
-      <sheetName val="正解値"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="20">
-          <cell r="H20" t="str">
-            <v>壁</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21" t="str">
-            <v>壁</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22" t="str">
-            <v>壁</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23" t="str">
-            <v>壁</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24" t="str">
-            <v>床</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25" t="str">
-            <v>屋根</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
@@ -1839,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81922F0-46CF-436B-B9D1-3C42B8880FD8}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -1861,37 +1814,36 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="H2" s="9">
         <v>1.199999999980782</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="str">
-        <f>[1]正解値!$H20</f>
-        <v>壁</v>
+      <c r="A3" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B3" s="10">
         <f>正解値!$J22</f>
@@ -1914,16 +1866,15 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="str">
-        <f>[1]正解値!$H21</f>
-        <v>壁</v>
+      <c r="A4" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B4" s="10">
         <f>正解値!$J23</f>
@@ -1947,9 +1898,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="str">
-        <f>[1]正解値!$H22</f>
-        <v>壁</v>
+      <c r="A5" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B5" s="10">
         <f>正解値!$J24</f>
@@ -1973,9 +1923,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="str">
-        <f>[1]正解値!$H23</f>
-        <v>壁</v>
+      <c r="A6" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B6" s="10">
         <f>正解値!$J25</f>
@@ -1999,9 +1948,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="str">
-        <f>[1]正解値!$H24</f>
-        <v>床</v>
+      <c r="A7" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B7" s="10">
         <f>正解値!$J26</f>
@@ -2025,9 +1973,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="str">
-        <f>[1]正解値!$H25</f>
-        <v>屋根</v>
+      <c r="A8" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B8" s="10">
         <f>正解値!$J27</f>
@@ -2052,7 +1999,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="10">
         <f>SUM(B3:B8)</f>
@@ -2078,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22:K27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G6" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2105,82 +2052,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.4">
@@ -2200,13 +2147,13 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>4</v>
@@ -2230,42 +2177,42 @@
         <v>11</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="T20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="V20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X20" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="X20" s="14" t="s">
+      <c r="Y20" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2">
         <v>1005</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -2276,7 +2223,7 @@
         <v>26</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>24</v>
@@ -2303,13 +2250,13 @@
         <v>23</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="14" t="s">
@@ -2323,17 +2270,17 @@
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2">
         <v>1.2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="1">
         <f>$D$24</f>
@@ -2405,18 +2352,18 @@
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2">
         <f>$D$21*$D$22</f>
         <v>1206</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" ref="I23:I27" si="7">$D$24</f>
@@ -2498,7 +2445,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="H24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="7"/>
@@ -2568,19 +2515,19 @@
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1">
         <v>2.7799999999999998E-4</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="7"/>
@@ -2659,7 +2606,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="H26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="7"/>
@@ -2736,7 +2683,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="H27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="7"/>
@@ -2805,10 +2752,10 @@
         <v>17</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1">
         <f ca="1">SUM($T$22:$T$27)</f>
@@ -2823,7 +2770,7 @@
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1">
         <f ca="1">$D$23*$D$25*($D$31-$D$24)</f>
@@ -2838,7 +2785,7 @@
       <c r="A30" s="19"/>
       <c r="B30" s="18"/>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1">
         <f ca="1">SUM($D$28:$D$29)</f>
@@ -2870,7 +2817,7 @@
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1">
         <f ca="1">SUMPRODUCT($M$22:$M$27,$J$22:$J$27,$R$22:$R$27)/SUMPRODUCT($M$22:$M$27,$J$22:$J$27)</f>
